--- a/data/trans_orig/P6901-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59AA31D4-EF15-4030-906F-E14801B8A94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C76C2D5-7028-4531-8348-BD2B084134AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47198E5F-1ABE-4E51-8470-DA1175E317C3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBEECA69-DC99-4222-A879-E64ADAFA74AB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>73,75%</t>
   </si>
   <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>26,25%</t>
   </si>
   <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,100 +140,112 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
     <t>75,15%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
   </si>
   <si>
     <t>24,85%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>53,53%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -242,1669 +254,1651 @@
     <t>72,4%</t>
   </si>
   <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>55,61%</t>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>50,34%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>63,61%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
   </si>
   <si>
     <t>91,28%</t>
   </si>
   <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>8,72%</t>
   </si>
   <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>45,81%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,31%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>57,19%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>29,4%</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036335BF-5E6F-4D79-8DB9-8B834EB9FE56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4AB016-7D11-41AA-B89A-4162A099D701}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2771,7 +2765,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2780,13 +2774,13 @@
         <v>43845</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2795,13 @@
         <v>7784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2816,13 +2810,13 @@
         <v>6710</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2831,13 +2825,13 @@
         <v>14494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2887,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2905,13 +2899,13 @@
         <v>42228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2920,13 +2914,13 @@
         <v>17168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -2935,13 +2929,13 @@
         <v>59396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,13 +2950,13 @@
         <v>16095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2971,13 +2965,13 @@
         <v>5538</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -2986,13 +2980,13 @@
         <v>21633</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,7 +3042,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3060,13 +3054,13 @@
         <v>15862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3075,13 +3069,13 @@
         <v>4972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3090,13 +3084,13 @@
         <v>20835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3105,13 @@
         <v>7092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3126,13 +3120,13 @@
         <v>1998</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3141,13 +3135,13 @@
         <v>9090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3203,7 +3197,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3215,13 +3209,13 @@
         <v>31725</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3230,13 +3224,13 @@
         <v>10792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3245,13 +3239,13 @@
         <v>42516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3260,13 @@
         <v>10085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3281,13 +3275,13 @@
         <v>3302</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -3296,13 +3290,13 @@
         <v>13387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3358,7 +3352,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3370,13 +3364,13 @@
         <v>59622</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3385,13 +3379,13 @@
         <v>36855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -3400,13 +3394,13 @@
         <v>96477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3415,13 @@
         <v>28826</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3436,13 +3430,13 @@
         <v>6680</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -3451,13 +3445,13 @@
         <v>35506</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,7 +3507,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3525,13 +3519,13 @@
         <v>85594</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3540,13 +3534,13 @@
         <v>37546</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>121</v>
@@ -3555,13 +3549,13 @@
         <v>123140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3570,13 @@
         <v>23321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3591,13 +3585,13 @@
         <v>12240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -3606,13 +3600,13 @@
         <v>35561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3674,13 @@
         <v>354578</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
@@ -3695,13 +3689,13 @@
         <v>171575</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>501</v>
@@ -3710,13 +3704,13 @@
         <v>526154</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3725,13 @@
         <v>117727</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -3746,13 +3740,13 @@
         <v>48546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>164</v>
@@ -3761,13 +3755,13 @@
         <v>166273</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3817,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +3841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B4D94C-B7E8-4523-8BD6-266C22944850}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBC579-C76A-436B-9C44-B659CD65CF71}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3864,7 +3858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,39 +3963,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,39 +4008,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,39 +4053,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4102,13 @@
         <v>50491</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4123,13 +4117,13 @@
         <v>27177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -4138,13 +4132,13 @@
         <v>77668</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4153,13 @@
         <v>6099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4174,13 +4168,13 @@
         <v>7138</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4189,13 +4183,13 @@
         <v>13237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4257,13 @@
         <v>22524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4278,13 +4272,13 @@
         <v>13901</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4293,13 +4287,13 @@
         <v>36425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4308,13 @@
         <v>2781</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4329,13 +4323,13 @@
         <v>4034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4344,13 +4338,13 @@
         <v>6815</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,7 +4400,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4418,13 +4412,13 @@
         <v>67220</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4433,13 +4427,13 @@
         <v>44353</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4448,13 +4442,13 @@
         <v>111572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4469,13 +4463,13 @@
         <v>19341</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4484,13 +4478,13 @@
         <v>13160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -4499,13 +4493,13 @@
         <v>32502</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,7 +4555,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4573,13 +4567,13 @@
         <v>12130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4588,13 +4582,13 @@
         <v>9691</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4603,13 +4597,13 @@
         <v>21820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4618,13 @@
         <v>4039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4639,13 +4633,13 @@
         <v>1970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4654,13 +4648,13 @@
         <v>6010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,7 +4710,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4728,13 +4722,13 @@
         <v>32501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>16</v>
+        <v>253</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4743,13 +4737,13 @@
         <v>13254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -4758,13 +4752,13 @@
         <v>45754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4773,13 @@
         <v>10879</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>25</v>
+        <v>260</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4794,13 +4788,13 @@
         <v>1930</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4809,13 +4803,13 @@
         <v>12810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,7 +4865,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4883,13 +4877,13 @@
         <v>26448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -4898,13 +4892,13 @@
         <v>32571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -4913,13 +4907,13 @@
         <v>59020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4928,13 @@
         <v>27982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -4949,13 +4943,13 @@
         <v>13809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -4964,13 +4958,13 @@
         <v>41790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,7 +5020,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5038,13 +5032,13 @@
         <v>32063</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -5053,13 +5047,13 @@
         <v>25716</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5068,13 +5062,13 @@
         <v>57779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5083,13 @@
         <v>13056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5104,13 +5098,13 @@
         <v>4956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -5119,13 +5113,13 @@
         <v>18012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5187,13 @@
         <v>243376</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -5208,13 +5202,13 @@
         <v>166663</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -5223,13 +5217,13 @@
         <v>410038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5238,13 @@
         <v>84178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5259,13 +5253,13 @@
         <v>46998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -5274,13 +5268,13 @@
         <v>131176</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,7 +5330,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5360,7 +5354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154A99DA-7BC4-4E24-8CF5-2F5717813948}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC56DC-AFDE-4C84-814F-B1A08C5264F5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5377,7 +5371,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5484,13 +5478,13 @@
         <v>34265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5499,13 +5493,13 @@
         <v>28647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5514,13 +5508,13 @@
         <v>62912</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5529,13 @@
         <v>24312</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5550,13 +5544,13 @@
         <v>12237</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5565,13 +5559,13 @@
         <v>36549</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5633,13 @@
         <v>75358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5654,13 +5648,13 @@
         <v>38379</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -5669,13 +5663,13 @@
         <v>113738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5684,13 @@
         <v>7428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5705,13 +5699,13 @@
         <v>4318</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5720,13 +5714,13 @@
         <v>11745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5788,13 @@
         <v>17667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5809,13 +5803,13 @@
         <v>10698</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -5824,13 +5818,13 @@
         <v>28365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5839,13 @@
         <v>3587</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5860,13 +5854,13 @@
         <v>1803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5875,13 +5869,13 @@
         <v>5390</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,7 +5931,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5949,13 +5943,13 @@
         <v>26393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5964,13 +5958,13 @@
         <v>25118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5979,13 +5973,13 @@
         <v>51511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +5994,13 @@
         <v>6072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6015,13 +6009,13 @@
         <v>4817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -6030,13 +6024,13 @@
         <v>10889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,7 +6086,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6104,13 +6098,13 @@
         <v>12413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6119,13 +6113,13 @@
         <v>4884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -6134,13 +6128,13 @@
         <v>17297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6149,13 @@
         <v>2457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6170,13 +6164,13 @@
         <v>887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6185,13 +6179,13 @@
         <v>3344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,7 +6241,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6259,13 +6253,13 @@
         <v>11013</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6274,10 +6268,10 @@
         <v>7427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>30</v>
@@ -6289,13 +6283,13 @@
         <v>18440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6304,13 @@
         <v>11421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>163</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6325,13 +6319,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -6340,13 +6334,13 @@
         <v>11420</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,7 +6396,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6414,13 +6408,13 @@
         <v>64763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -6429,13 +6423,13 @@
         <v>50864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -6444,13 +6438,13 @@
         <v>115626</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6459,13 @@
         <v>13579</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6480,13 +6474,13 @@
         <v>4818</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -6495,13 +6489,13 @@
         <v>18398</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,7 +6551,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6569,13 +6563,13 @@
         <v>18923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -6584,13 +6578,13 @@
         <v>17739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>187</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6599,13 +6593,13 @@
         <v>36662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6614,13 @@
         <v>20351</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6635,10 +6629,10 @@
         <v>3661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>447</v>
@@ -6867,7 +6861,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6891,7 +6885,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BC2D60-E613-4C34-BF3E-4AD133A3B9A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA39A2C-A04B-44DC-9B53-54C42E92E314}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7051,7 +7045,7 @@
         <v>477</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,13 +7060,13 @@
         <v>7478</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -7081,13 +7075,13 @@
         <v>4002</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7096,13 +7090,13 @@
         <v>11480</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>485</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7170,13 +7164,13 @@
         <v>37762</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>490</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -7185,13 +7179,13 @@
         <v>43053</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -7200,13 +7194,13 @@
         <v>80815</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7215,13 @@
         <v>8239</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -7236,13 +7230,13 @@
         <v>5568</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>502</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -7251,13 +7245,13 @@
         <v>13807</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>503</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7325,13 +7319,13 @@
         <v>28434</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>506</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -7340,13 +7334,13 @@
         <v>34155</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -7355,13 +7349,13 @@
         <v>62589</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,13 +7370,13 @@
         <v>22296</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -7391,13 +7385,13 @@
         <v>14766</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -7406,13 +7400,13 @@
         <v>37062</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,7 +7462,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7480,13 +7474,13 @@
         <v>28517</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -7495,13 +7489,13 @@
         <v>48361</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>527</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -7510,13 +7504,13 @@
         <v>76878</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,13 +7525,13 @@
         <v>13617</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7546,13 +7540,13 @@
         <v>13798</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -7561,13 +7555,13 @@
         <v>27415</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7623,7 +7617,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7635,13 +7629,13 @@
         <v>16409</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>543</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7650,13 +7644,13 @@
         <v>10127</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>545</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>546</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -7665,13 +7659,13 @@
         <v>26535</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,13 +7680,13 @@
         <v>3033</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7701,13 +7695,13 @@
         <v>1854</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -7716,13 +7710,13 @@
         <v>4887</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>557</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7778,7 +7772,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7790,13 +7784,13 @@
         <v>22093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>561</v>
+        <v>65</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -7805,13 +7799,13 @@
         <v>24023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -7820,13 +7814,13 @@
         <v>46116</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,13 +7835,13 @@
         <v>10613</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7856,13 +7850,13 @@
         <v>8448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -7871,13 +7865,13 @@
         <v>19061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7933,7 +7927,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7945,13 +7939,13 @@
         <v>50338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -7960,13 +7954,13 @@
         <v>56101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -7975,13 +7969,13 @@
         <v>106440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,13 +7990,13 @@
         <v>24039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -8011,13 +8005,13 @@
         <v>18979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -8026,13 +8020,13 @@
         <v>43018</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8088,7 +8082,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8100,13 +8094,13 @@
         <v>61206</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>590</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -8115,13 +8109,13 @@
         <v>48807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>593</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -8130,13 +8124,13 @@
         <v>110012</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>598</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,13 +8145,13 @@
         <v>5850</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -8166,7 +8160,7 @@
         <v>18329</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>602</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>603</v>
@@ -8261,7 +8255,7 @@
         <v>608</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>419</v>
+        <v>219</v>
       </c>
       <c r="H28" s="7">
         <v>374</v>
@@ -8291,7 +8285,7 @@
         <v>613</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>614</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,13 +8300,13 @@
         <v>95167</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>429</v>
+        <v>228</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -8321,13 +8315,13 @@
         <v>85743</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>618</v>
       </c>
       <c r="M29" s="7">
         <v>190</v>
@@ -8336,13 +8330,13 @@
         <v>180910</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>619</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>620</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8398,7 +8392,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6901-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C76C2D5-7028-4531-8348-BD2B084134AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4FE2C7-4798-4F5B-A5D4-1B043D15D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DBEECA69-DC99-4222-A879-E64ADAFA74AB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20FF7219-2E35-4254-9D0F-8A6337F6A3C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="614">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -77,1674 +77,1665 @@
     <t>73,75%</t>
   </si>
   <si>
-    <t>58,64%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>61,7%</t>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>83,1%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
   </si>
   <si>
     <t>16,9%</t>
   </si>
   <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>64,22%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>48,84%</t>
   </si>
   <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>62,58%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>70,44%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
     <t>26,02%</t>
   </si>
   <si>
@@ -1754,18 +1745,12 @@
     <t>42,33%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
     <t>19,97%</t>
   </si>
   <si>
     <t>40,1%</t>
   </si>
   <si>
-    <t>54,39%</t>
-  </si>
-  <si>
     <t>78,19%</t>
   </si>
   <si>
@@ -1788,9 +1773,6 @@
   </si>
   <si>
     <t>21,81%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
   </si>
   <si>
     <t>25,28%</t>
@@ -2310,7 +2292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4AB016-7D11-41AA-B89A-4162A099D701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219DB362-32CE-40D8-8719-852EE51CB545}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3677,10 +3659,10 @@
         <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
@@ -3689,13 +3671,13 @@
         <v>171575</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>501</v>
@@ -3704,13 +3686,13 @@
         <v>526154</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3707,13 @@
         <v>117727</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -3740,13 +3722,13 @@
         <v>48546</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>164</v>
@@ -3755,13 +3737,13 @@
         <v>166273</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,7 +3799,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3841,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87FBC579-C76A-436B-9C44-B659CD65CF71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C02FD38-074E-4DFA-BD14-96945339F36F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3858,7 +3840,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3963,39 +3945,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,39 +3990,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,39 +4035,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4084,13 @@
         <v>50491</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4117,13 +4099,13 @@
         <v>27177</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -4132,13 +4114,13 @@
         <v>77668</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4135,13 @@
         <v>6099</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4168,13 +4150,13 @@
         <v>7138</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4183,13 +4165,13 @@
         <v>13237</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,13 +4239,13 @@
         <v>22524</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4272,13 +4254,13 @@
         <v>13901</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4287,13 +4269,13 @@
         <v>36425</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4290,13 @@
         <v>2781</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4323,13 +4305,13 @@
         <v>4034</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4338,10 +4320,10 @@
         <v>6815</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>218</v>
@@ -4582,10 +4564,10 @@
         <v>9691</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>19</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>94</v>
@@ -4597,13 +4579,13 @@
         <v>21820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4618,13 +4600,13 @@
         <v>4039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4633,13 +4615,13 @@
         <v>1970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4648,13 +4630,13 @@
         <v>6010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4704,13 @@
         <v>32501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4737,10 +4719,10 @@
         <v>13254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>94</v>
@@ -4752,13 +4734,13 @@
         <v>45754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4755,13 @@
         <v>10879</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4788,13 +4770,13 @@
         <v>1930</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4803,13 +4785,13 @@
         <v>12810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4859,13 @@
         <v>26448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -4892,13 +4874,13 @@
         <v>32571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -4907,13 +4889,13 @@
         <v>59020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4910,13 @@
         <v>27982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -4943,13 +4925,13 @@
         <v>13809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -4958,13 +4940,13 @@
         <v>41790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5014,13 @@
         <v>32063</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -5047,13 +5029,13 @@
         <v>25716</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5062,13 +5044,13 @@
         <v>57779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5065,13 @@
         <v>13056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5098,13 +5080,13 @@
         <v>4956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -5113,13 +5095,13 @@
         <v>18012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5169,13 @@
         <v>243376</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -5202,13 +5184,13 @@
         <v>166663</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -5217,13 +5199,13 @@
         <v>410038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,13 +5220,13 @@
         <v>84178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5253,13 +5235,13 @@
         <v>46998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -5268,13 +5250,13 @@
         <v>131176</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,7 +5312,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5354,7 +5336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FC56DC-AFDE-4C84-814F-B1A08C5264F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2D14DA-156A-4571-8BBD-849A57FA4912}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5371,7 +5353,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5478,13 +5460,13 @@
         <v>34265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>92</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5493,13 +5475,13 @@
         <v>28647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5508,13 +5490,13 @@
         <v>62912</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,10 +5514,10 @@
         <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5544,13 +5526,13 @@
         <v>12237</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5559,13 +5541,13 @@
         <v>36549</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5615,13 @@
         <v>75358</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5648,13 +5630,13 @@
         <v>38379</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -5663,13 +5645,13 @@
         <v>113738</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5666,13 @@
         <v>7428</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5699,13 +5681,13 @@
         <v>4318</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5714,13 +5696,13 @@
         <v>11745</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5770,13 @@
         <v>17667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5803,10 +5785,10 @@
         <v>10698</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>94</v>
@@ -5818,13 +5800,13 @@
         <v>28365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,13 +5821,13 @@
         <v>3587</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>162</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5854,13 +5836,13 @@
         <v>1803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5869,13 +5851,13 @@
         <v>5390</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5925,13 @@
         <v>26393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5958,13 +5940,13 @@
         <v>25118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5973,13 +5955,13 @@
         <v>51511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5994,13 +5976,13 @@
         <v>6072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6009,13 +5991,13 @@
         <v>4817</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -6024,13 +6006,13 @@
         <v>10889</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,10 +6080,10 @@
         <v>12413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>94</v>
@@ -6113,10 +6095,10 @@
         <v>4884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>94</v>
@@ -6128,13 +6110,13 @@
         <v>17297</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6149,13 +6131,13 @@
         <v>2457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6164,13 +6146,13 @@
         <v>887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6179,13 +6161,13 @@
         <v>3344</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6235,13 @@
         <v>11013</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6271,7 +6253,7 @@
         <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>30</v>
@@ -6283,13 +6265,13 @@
         <v>18440</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>409</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6286,13 @@
         <v>11421</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6322,10 +6304,10 @@
         <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -6334,13 +6316,13 @@
         <v>11420</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6390,13 @@
         <v>64763</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -6423,13 +6405,13 @@
         <v>50864</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -6438,13 +6420,13 @@
         <v>115626</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6441,13 @@
         <v>13579</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6474,13 +6456,13 @@
         <v>4818</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -6489,13 +6471,13 @@
         <v>18398</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,13 +6545,13 @@
         <v>18923</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -6578,13 +6560,13 @@
         <v>17739</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6593,13 +6575,13 @@
         <v>36662</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6596,13 @@
         <v>20351</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6629,10 +6611,10 @@
         <v>3661</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>447</v>
@@ -6721,10 +6703,10 @@
         <v>451</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>176</v>
@@ -6733,13 +6715,13 @@
         <v>183756</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>417</v>
@@ -6748,13 +6730,13 @@
         <v>444551</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,13 +6751,13 @@
         <v>89206</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>461</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -6784,13 +6766,13 @@
         <v>32542</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>465</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -6799,13 +6781,13 @@
         <v>121748</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>466</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6861,7 +6843,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6885,7 +6867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA39A2C-A04B-44DC-9B53-54C42E92E314}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BB138F-2B05-45DA-BDC2-7AACDCF9EBF8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6902,7 +6884,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7009,13 +6991,13 @@
         <v>13093</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>472</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -7024,13 +7006,13 @@
         <v>10841</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -7039,13 +7021,13 @@
         <v>23934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7060,13 +7042,13 @@
         <v>7478</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>480</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -7075,13 +7057,13 @@
         <v>4002</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7090,13 +7072,13 @@
         <v>11480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7164,13 +7146,13 @@
         <v>37762</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>487</v>
+        <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -7179,13 +7161,13 @@
         <v>43053</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -7194,13 +7176,13 @@
         <v>80815</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7215,13 +7197,13 @@
         <v>8239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -7230,13 +7212,13 @@
         <v>5568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -7245,13 +7227,13 @@
         <v>13807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,13 +7301,13 @@
         <v>28434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -7334,13 +7316,13 @@
         <v>34155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -7349,13 +7331,13 @@
         <v>62589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7370,13 +7352,13 @@
         <v>22296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -7385,13 +7367,13 @@
         <v>14766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -7400,13 +7382,13 @@
         <v>37062</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7456,13 @@
         <v>28517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -7489,13 +7471,13 @@
         <v>48361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -7504,13 +7486,13 @@
         <v>76878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7525,13 +7507,13 @@
         <v>13617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7540,13 +7522,13 @@
         <v>13798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -7555,13 +7537,13 @@
         <v>27415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7611,13 @@
         <v>16409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7644,13 +7626,13 @@
         <v>10127</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -7659,13 +7641,13 @@
         <v>26535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,13 +7662,13 @@
         <v>3033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7695,13 +7677,13 @@
         <v>1854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -7710,13 +7692,13 @@
         <v>4887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7784,13 +7766,13 @@
         <v>22093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>65</v>
+        <v>555</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -7799,13 +7781,13 @@
         <v>24023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -7814,13 +7796,13 @@
         <v>46116</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>563</v>
+        <v>202</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7835,13 +7817,13 @@
         <v>10613</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7850,13 +7832,13 @@
         <v>8448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -7865,13 +7847,13 @@
         <v>19061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>571</v>
+        <v>212</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7939,13 +7921,13 @@
         <v>50338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -7954,13 +7936,13 @@
         <v>56101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -7969,13 +7951,13 @@
         <v>106440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7990,13 +7972,13 @@
         <v>24039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>583</v>
+        <v>90</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -8005,13 +7987,13 @@
         <v>18979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -8020,13 +8002,13 @@
         <v>43018</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,13 +8076,13 @@
         <v>61206</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -8109,13 +8091,13 @@
         <v>48807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -8124,13 +8106,13 @@
         <v>110012</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,13 +8127,13 @@
         <v>5850</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -8160,13 +8142,13 @@
         <v>18329</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -8175,13 +8157,13 @@
         <v>24179</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,10 +8231,10 @@
         <v>257851</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>219</v>
@@ -8264,13 +8246,13 @@
         <v>275468</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="M28" s="7">
         <v>622</v>
@@ -8279,13 +8261,13 @@
         <v>533318</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8282,13 @@
         <v>95167</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>228</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -8315,13 +8297,13 @@
         <v>85743</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M29" s="7">
         <v>190</v>
@@ -8330,13 +8312,13 @@
         <v>180910</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8392,7 +8374,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6901-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C4FE2C7-4798-4F5B-A5D4-1B043D15D08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A158A1D-8FA3-4B42-BC2C-A2A699B9A9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{20FF7219-2E35-4254-9D0F-8A6337F6A3C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE397EEB-EB25-4B0F-B7E6-E30075247037}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="622">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>73,75%</t>
   </si>
   <si>
-    <t>58,87%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>72,97%</t>
   </si>
   <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>26,25%</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
   </si>
   <si>
     <t>28,2%</t>
   </si>
   <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>81,66%</t>
   </si>
   <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
   </si>
   <si>
     <t>87,74%</t>
   </si>
   <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
   </si>
   <si>
     <t>12,26%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,1690 +197,1714 @@
     <t>78,74%</t>
   </si>
   <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>47,19%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>77,44%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>48,59%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
   </si>
   <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>51,82%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>67,55%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>70,75%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>29,25%</t>
   </si>
   <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>74,92%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>48,59%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
   </si>
   <si>
     <t>16,43%</t>
   </si>
   <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>64,22%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>62,13%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>53,75%</t>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
   </si>
   <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
   </si>
   <si>
     <t>76,26%</t>
   </si>
   <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
   </si>
   <si>
     <t>74,67%</t>
   </si>
   <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
   </si>
   <si>
     <t>23,74%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
   </si>
   <si>
     <t>25,33%</t>
   </si>
   <si>
-    <t>29,4%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
   </si>
 </sst>
 </file>
@@ -2292,7 +2316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219DB362-32CE-40D8-8719-852EE51CB545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262F65B1-BA9C-42F4-A963-83BFFFC1AF8C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2747,7 +2771,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2756,13 +2780,13 @@
         <v>43845</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2801,13 @@
         <v>7784</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>7</v>
@@ -2792,13 +2816,13 @@
         <v>6710</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>15</v>
@@ -2807,13 +2831,13 @@
         <v>14494</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,7 +2893,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2881,13 +2905,13 @@
         <v>42228</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2896,13 +2920,13 @@
         <v>17168</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -2911,13 +2935,13 @@
         <v>59396</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2956,13 @@
         <v>16095</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -2947,13 +2971,13 @@
         <v>5538</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>22</v>
@@ -2962,13 +2986,13 @@
         <v>21633</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,7 +3048,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3036,13 +3060,13 @@
         <v>15862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -3051,13 +3075,13 @@
         <v>4972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -3066,13 +3090,13 @@
         <v>20835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3111,13 @@
         <v>7092</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3102,13 +3126,13 @@
         <v>1998</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -3117,13 +3141,13 @@
         <v>9090</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,7 +3203,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3191,13 +3215,13 @@
         <v>31725</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3206,13 +3230,13 @@
         <v>10792</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>41</v>
@@ -3221,13 +3245,13 @@
         <v>42516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,13 +3266,13 @@
         <v>10085</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3257,13 +3281,13 @@
         <v>3302</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -3272,13 +3296,13 @@
         <v>13387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,7 +3358,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3346,13 +3370,13 @@
         <v>59622</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
         <v>36</v>
@@ -3361,13 +3385,13 @@
         <v>36855</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>92</v>
@@ -3376,13 +3400,13 @@
         <v>96477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,13 +3421,13 @@
         <v>28826</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3412,13 +3436,13 @@
         <v>6680</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>35</v>
@@ -3427,13 +3451,13 @@
         <v>35506</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,7 +3513,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3501,13 +3525,13 @@
         <v>85594</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -3516,13 +3540,13 @@
         <v>37546</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>121</v>
@@ -3531,13 +3555,13 @@
         <v>123140</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,13 +3576,13 @@
         <v>23321</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -3567,13 +3591,13 @@
         <v>12240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -3582,13 +3606,13 @@
         <v>35561</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3680,13 @@
         <v>354578</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>167</v>
@@ -3671,13 +3695,13 @@
         <v>171575</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>501</v>
@@ -3686,13 +3710,13 @@
         <v>526154</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3731,13 @@
         <v>117727</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>48</v>
@@ -3722,13 +3746,13 @@
         <v>48546</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>164</v>
@@ -3737,13 +3761,13 @@
         <v>166273</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,7 +3823,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3823,7 +3847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C02FD38-074E-4DFA-BD14-96945339F36F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679040F2-A2F9-48BB-87C5-1C3B961E707F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3840,7 +3864,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3945,39 +3969,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,39 +4014,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,39 +4059,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4108,13 @@
         <v>50491</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4099,13 +4123,13 @@
         <v>27177</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -4114,13 +4138,13 @@
         <v>77668</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4159,13 @@
         <v>6099</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4150,13 +4174,13 @@
         <v>7138</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4165,13 +4189,13 @@
         <v>13237</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4263,13 @@
         <v>22524</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4254,13 +4278,13 @@
         <v>13901</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4269,13 +4293,13 @@
         <v>36425</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4314,13 @@
         <v>2781</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4305,13 +4329,13 @@
         <v>4034</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4320,13 +4344,13 @@
         <v>6815</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,7 +4406,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4394,13 +4418,13 @@
         <v>67220</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>40</v>
@@ -4409,13 +4433,13 @@
         <v>44353</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>103</v>
@@ -4424,13 +4448,13 @@
         <v>111572</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4469,13 @@
         <v>19341</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -4460,13 +4484,13 @@
         <v>13160</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -4475,13 +4499,13 @@
         <v>32502</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,7 +4561,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4549,13 +4573,13 @@
         <v>12130</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4564,13 +4588,13 @@
         <v>9691</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>20</v>
@@ -4579,13 +4603,13 @@
         <v>21820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4624,13 @@
         <v>4039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4615,13 +4639,13 @@
         <v>1970</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4630,13 +4654,13 @@
         <v>6010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,7 +4716,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4704,13 +4728,13 @@
         <v>32501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -4719,13 +4743,13 @@
         <v>13254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M19" s="7">
         <v>45</v>
@@ -4734,13 +4758,13 @@
         <v>45754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4779,13 @@
         <v>10879</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4770,13 +4794,13 @@
         <v>1930</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4785,13 +4809,13 @@
         <v>12810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,7 +4871,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4859,13 +4883,13 @@
         <v>26448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -4874,13 +4898,13 @@
         <v>32571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -4889,13 +4913,13 @@
         <v>59020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4934,13 @@
         <v>27982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -4925,13 +4949,13 @@
         <v>13809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -4940,13 +4964,13 @@
         <v>41790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,7 +5026,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5014,13 +5038,13 @@
         <v>32063</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -5029,13 +5053,13 @@
         <v>25716</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5044,13 +5068,13 @@
         <v>57779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5089,13 @@
         <v>13056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5080,13 +5104,13 @@
         <v>4956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -5095,13 +5119,13 @@
         <v>18012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,13 +5193,13 @@
         <v>243376</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -5184,13 +5208,13 @@
         <v>166663</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -5199,13 +5223,13 @@
         <v>410038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5244,13 @@
         <v>84178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5235,13 +5259,13 @@
         <v>46998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -5250,13 +5274,13 @@
         <v>131176</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,7 +5336,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5336,7 +5360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2D14DA-156A-4571-8BBD-849A57FA4912}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB16285-45BC-4E1E-B3BA-FC305ECCB7A0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5353,7 +5377,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5460,13 +5484,13 @@
         <v>34265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>92</v>
+        <v>320</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5475,13 +5499,13 @@
         <v>28647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5490,13 +5514,13 @@
         <v>62912</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>76</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5535,13 @@
         <v>24312</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>101</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5526,13 +5550,13 @@
         <v>12237</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5541,13 +5565,13 @@
         <v>36549</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>85</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5639,13 @@
         <v>75358</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5630,13 +5654,13 @@
         <v>38379</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -5645,13 +5669,13 @@
         <v>113738</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5690,13 @@
         <v>7428</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5681,13 +5705,13 @@
         <v>4318</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5696,13 +5720,13 @@
         <v>11745</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5770,13 +5794,13 @@
         <v>17667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5785,13 +5809,13 @@
         <v>10698</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -5800,13 +5824,13 @@
         <v>28365</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5845,13 @@
         <v>3587</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5836,13 +5860,13 @@
         <v>1803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5851,13 +5875,13 @@
         <v>5390</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,7 +5937,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5925,13 +5949,13 @@
         <v>26393</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5940,13 +5964,13 @@
         <v>25118</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5955,13 +5979,13 @@
         <v>51511</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5976,13 +6000,13 @@
         <v>6072</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -5991,13 +6015,13 @@
         <v>4817</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -6006,13 +6030,13 @@
         <v>10889</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,7 +6092,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6080,13 +6104,13 @@
         <v>12413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6095,13 +6119,13 @@
         <v>4884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -6110,13 +6134,13 @@
         <v>17297</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6155,13 @@
         <v>2457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6146,13 +6170,13 @@
         <v>887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6161,13 +6185,13 @@
         <v>3344</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,7 +6247,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6235,13 +6259,13 @@
         <v>11013</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6250,10 +6274,10 @@
         <v>7427</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>30</v>
@@ -6265,13 +6289,13 @@
         <v>18440</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6310,13 @@
         <v>11421</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6301,13 +6325,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -6316,10 +6340,10 @@
         <v>11420</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>414</v>
@@ -6378,7 +6402,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6533,7 +6557,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6703,10 +6727,10 @@
         <v>451</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>95</v>
+        <v>452</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>176</v>
@@ -6715,13 +6739,13 @@
         <v>183756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>417</v>
@@ -6730,13 +6754,13 @@
         <v>444551</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6775,13 @@
         <v>89206</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>462</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -6766,13 +6790,13 @@
         <v>32542</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -6781,13 +6805,13 @@
         <v>121748</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6843,7 +6867,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6867,7 +6891,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BB138F-2B05-45DA-BDC2-7AACDCF9EBF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B7630C-027A-4954-9609-0370E3519F16}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6884,7 +6908,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6991,13 +7015,13 @@
         <v>13093</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -7006,13 +7030,13 @@
         <v>10841</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
@@ -7021,13 +7045,13 @@
         <v>23934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>370</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7042,13 +7066,13 @@
         <v>7478</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -7057,13 +7081,13 @@
         <v>4002</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
@@ -7072,13 +7096,13 @@
         <v>11480</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>486</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7146,13 +7170,13 @@
         <v>37762</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -7161,13 +7185,13 @@
         <v>43053</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -7176,13 +7200,13 @@
         <v>80815</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7221,13 @@
         <v>8239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -7212,13 +7236,13 @@
         <v>5568</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -7227,13 +7251,13 @@
         <v>13807</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7301,13 +7325,13 @@
         <v>28434</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -7316,13 +7340,13 @@
         <v>34155</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
@@ -7331,13 +7355,13 @@
         <v>62589</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7376,13 @@
         <v>22296</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
@@ -7367,13 +7391,13 @@
         <v>14766</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -7382,13 +7406,13 @@
         <v>37062</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,7 +7468,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7456,13 +7480,13 @@
         <v>28517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -7471,13 +7495,13 @@
         <v>48361</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -7486,13 +7510,13 @@
         <v>76878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7531,13 @@
         <v>13617</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
@@ -7522,13 +7546,13 @@
         <v>13798</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -7537,13 +7561,13 @@
         <v>27415</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,7 +7623,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7611,13 +7635,13 @@
         <v>16409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -7626,13 +7650,13 @@
         <v>10127</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -7641,13 +7665,13 @@
         <v>26535</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7686,13 @@
         <v>3033</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7677,13 +7701,13 @@
         <v>1854</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -7692,13 +7716,13 @@
         <v>4887</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,7 +7778,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7766,13 +7790,13 @@
         <v>22093</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
@@ -7781,13 +7805,13 @@
         <v>24023</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
@@ -7796,13 +7820,13 @@
         <v>46116</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>202</v>
+        <v>566</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7841,13 @@
         <v>10613</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -7832,13 +7856,13 @@
         <v>8448</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
@@ -7847,13 +7871,13 @@
         <v>19061</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>212</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,7 +7933,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7921,13 +7945,13 @@
         <v>50338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
@@ -7936,13 +7960,13 @@
         <v>56101</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
@@ -7951,13 +7975,13 @@
         <v>106440</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7996,13 @@
         <v>24039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>90</v>
+        <v>587</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
@@ -7987,13 +8011,13 @@
         <v>18979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
@@ -8002,13 +8026,13 @@
         <v>43018</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,7 +8088,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8076,13 +8100,13 @@
         <v>61206</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>584</v>
+        <v>71</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -8091,13 +8115,13 @@
         <v>48807</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>587</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
@@ -8106,13 +8130,13 @@
         <v>110012</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,13 +8151,13 @@
         <v>5850</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>593</v>
+        <v>79</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
@@ -8142,13 +8166,13 @@
         <v>18329</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>596</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -8157,13 +8181,13 @@
         <v>24179</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8255,13 @@
         <v>257851</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>219</v>
+        <v>419</v>
       </c>
       <c r="H28" s="7">
         <v>374</v>
@@ -8246,13 +8270,13 @@
         <v>275468</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="M28" s="7">
         <v>622</v>
@@ -8261,13 +8285,13 @@
         <v>533318</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8306,13 @@
         <v>95167</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>228</v>
+        <v>429</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
@@ -8297,13 +8321,13 @@
         <v>85743</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="M29" s="7">
         <v>190</v>
@@ -8312,13 +8336,13 @@
         <v>180910</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>620</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8374,7 +8398,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6901-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6901-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A158A1D-8FA3-4B42-BC2C-A2A699B9A9C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C675BE7C-3B1A-4AFA-8E81-BDE5EDDCEB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FE397EEB-EB25-4B0F-B7E6-E30075247037}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5B363D13-E177-4718-A30D-10A780159E4A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="635">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -581,7 +581,52 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2012 (Tasa respuesta: 7,84%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>89,22%</t>
@@ -692,58 +737,58 @@
     <t>30,2%</t>
   </si>
   <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
   </si>
   <si>
     <t>75,02%</t>
@@ -1298,9 +1343,6 @@
     <t>91,35%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
     <t>96,8%</t>
   </si>
   <si>
@@ -1328,9 +1370,6 @@
     <t>3,2%</t>
   </si>
   <si>
-    <t>22,04%</t>
-  </si>
-  <si>
     <t>13,73%</t>
   </si>
   <si>
@@ -1451,460 +1490,460 @@
     <t>Población según si su trabajo le afecta de manera que tiene dolores en la espalda en 2023 (Tasa respuesta: 9,29%)</t>
   </si>
   <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>77,62%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>76,04%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>68,4%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>58,02%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
   </si>
   <si>
     <t>71,3%</t>
   </si>
   <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>57,97%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
   </si>
   <si>
     <t>28,7%</t>
   </si>
   <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>63,43%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
 </sst>
 </file>
@@ -2316,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{262F65B1-BA9C-42F4-A963-83BFFFC1AF8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE967C2-00E4-4586-8901-1DD20AE6304F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3847,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679040F2-A2F9-48BB-87C5-1C3B961E707F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD625A63-B3C6-4D34-97B9-584E01EEDE3F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3965,43 +4004,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>27152</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I4" s="7">
+        <v>21810</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>124</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48962</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,43 +4055,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12342</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6168</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="N5" s="7">
+        <v>18509</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,43 +4106,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D6" s="7">
+        <v>39494</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="7">
+        <v>27978</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="N6" s="7">
+        <v>67471</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4165,13 @@
         <v>50491</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4123,13 +4180,13 @@
         <v>27177</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -4138,13 +4195,13 @@
         <v>77668</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4216,13 @@
         <v>6099</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -4174,13 +4231,13 @@
         <v>7138</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -4189,13 +4246,13 @@
         <v>13237</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4263,13 +4320,13 @@
         <v>22524</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4278,13 +4335,13 @@
         <v>13901</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -4293,13 +4350,13 @@
         <v>36425</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4314,13 +4371,13 @@
         <v>2781</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4329,13 +4386,13 @@
         <v>4034</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -4344,13 +4401,13 @@
         <v>6815</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,49 +4469,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="D13" s="7">
-        <v>67220</v>
+        <v>40069</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I13" s="7">
-        <v>44353</v>
+        <v>22542</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M13" s="7">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="N13" s="7">
-        <v>111572</v>
+        <v>62611</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,49 +4520,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>19341</v>
+        <v>6999</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>13160</v>
+        <v>6993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M14" s="7">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N14" s="7">
-        <v>32502</v>
+        <v>13992</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,10 +4571,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="D15" s="7">
-        <v>86561</v>
+        <v>47068</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4529,10 +4586,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I15" s="7">
-        <v>57513</v>
+        <v>29535</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4544,10 +4601,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="N15" s="7">
-        <v>144074</v>
+        <v>76603</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4573,13 +4630,13 @@
         <v>12130</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4591,7 +4648,7 @@
         <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>90</v>
@@ -4603,13 +4660,13 @@
         <v>21820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,13 +4681,13 @@
         <v>4039</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -4645,7 +4702,7 @@
         <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -4654,13 +4711,13 @@
         <v>6010</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,10 +4785,10 @@
         <v>32501</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -4743,10 +4800,10 @@
         <v>13254</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>90</v>
@@ -4758,13 +4815,13 @@
         <v>45754</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4836,13 @@
         <v>10879</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -4794,13 +4851,13 @@
         <v>1930</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4809,13 +4866,13 @@
         <v>12810</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4940,13 @@
         <v>26448</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -4898,13 +4955,13 @@
         <v>32571</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>59</v>
@@ -4913,13 +4970,13 @@
         <v>59020</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,13 +4991,13 @@
         <v>27982</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="H23" s="7">
         <v>12</v>
@@ -4949,13 +5006,13 @@
         <v>13809</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="M23" s="7">
         <v>37</v>
@@ -4964,13 +5021,13 @@
         <v>41790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5095,13 @@
         <v>32063</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -5053,13 +5110,13 @@
         <v>25716</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>52</v>
@@ -5068,13 +5125,13 @@
         <v>57779</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5089,13 +5146,13 @@
         <v>13056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5104,13 +5161,13 @@
         <v>4956</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -5119,13 +5176,13 @@
         <v>18012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5250,13 @@
         <v>243376</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H28" s="7">
         <v>152</v>
@@ -5208,13 +5265,13 @@
         <v>166663</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="M28" s="7">
         <v>386</v>
@@ -5223,13 +5280,13 @@
         <v>410038</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5301,13 @@
         <v>84178</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="H29" s="7">
         <v>44</v>
@@ -5259,13 +5316,13 @@
         <v>46998</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="M29" s="7">
         <v>124</v>
@@ -5274,13 +5331,13 @@
         <v>131176</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,7 +5417,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB16285-45BC-4E1E-B3BA-FC305ECCB7A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB49EB1-9AB5-4577-BFE3-6ACCBBAB52B0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5377,7 +5434,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5484,13 +5541,13 @@
         <v>34265</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="H4" s="7">
         <v>27</v>
@@ -5499,13 +5556,13 @@
         <v>28647</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -5514,13 +5571,13 @@
         <v>62912</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5592,13 @@
         <v>24312</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5550,13 +5607,13 @@
         <v>12237</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5565,13 +5622,13 @@
         <v>36549</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5639,13 +5696,13 @@
         <v>75358</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -5654,13 +5711,13 @@
         <v>38379</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="M7" s="7">
         <v>108</v>
@@ -5669,13 +5726,13 @@
         <v>113738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5747,13 @@
         <v>7428</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5705,13 +5762,13 @@
         <v>4318</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>11</v>
@@ -5720,13 +5777,13 @@
         <v>11745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5851,13 @@
         <v>17667</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>11</v>
@@ -5809,10 +5866,10 @@
         <v>10698</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>90</v>
@@ -5824,13 +5881,13 @@
         <v>28365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,13 +5902,13 @@
         <v>3587</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -5860,13 +5917,13 @@
         <v>1803</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -5875,13 +5932,13 @@
         <v>5390</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +6006,13 @@
         <v>26393</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5964,13 +6021,13 @@
         <v>25118</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -5979,13 +6036,13 @@
         <v>51511</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6000,13 +6057,13 @@
         <v>6072</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -6015,13 +6072,13 @@
         <v>4817</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -6030,13 +6087,13 @@
         <v>10889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,10 +6161,10 @@
         <v>12413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>90</v>
@@ -6119,10 +6176,10 @@
         <v>4884</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>90</v>
@@ -6134,13 +6191,13 @@
         <v>17297</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6212,13 @@
         <v>2457</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -6170,13 +6227,13 @@
         <v>887</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6185,13 +6242,13 @@
         <v>3344</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6316,13 @@
         <v>11013</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>7</v>
@@ -6277,7 +6334,7 @@
         <v>90</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>30</v>
@@ -6289,13 +6346,13 @@
         <v>18440</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6367,13 @@
         <v>11421</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6328,10 +6385,10 @@
         <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -6340,13 +6397,13 @@
         <v>11420</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6471,13 @@
         <v>64763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>48</v>
@@ -6429,13 +6486,13 @@
         <v>50864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>419</v>
+        <v>183</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
@@ -6444,13 +6501,13 @@
         <v>115626</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>423</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6465,13 +6522,13 @@
         <v>13579</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>424</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6480,13 +6537,13 @@
         <v>4818</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>429</v>
+        <v>191</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -6495,13 +6552,13 @@
         <v>18398</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>432</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6626,13 @@
         <v>18923</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
@@ -6584,13 +6641,13 @@
         <v>17739</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6599,13 +6656,13 @@
         <v>36662</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,13 +6677,13 @@
         <v>20351</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -6635,13 +6692,13 @@
         <v>3661</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>21</v>
@@ -6650,13 +6707,13 @@
         <v>24012</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6781,13 @@
         <v>260795</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="H28" s="7">
         <v>176</v>
@@ -6739,13 +6796,13 @@
         <v>183756</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="M28" s="7">
         <v>417</v>
@@ -6754,13 +6811,13 @@
         <v>444551</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6775,13 +6832,13 @@
         <v>89206</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="H29" s="7">
         <v>31</v>
@@ -6790,13 +6847,13 @@
         <v>32542</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>477</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>465</v>
+        <v>478</v>
       </c>
       <c r="M29" s="7">
         <v>112</v>
@@ -6805,13 +6862,13 @@
         <v>121748</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6891,7 +6948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B7630C-027A-4954-9609-0370E3519F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F8FFAB-B087-4853-9FCA-C3923E31F5FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6908,7 +6965,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,46 +7069,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>13093</v>
+        <v>15495</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>470</v>
+        <v>483</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>10841</v>
+        <v>11316</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>474</v>
+        <v>487</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="M4" s="7">
         <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>23934</v>
+        <v>26811</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,46 +7120,46 @@
         <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>7478</v>
+        <v>8574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
       </c>
       <c r="I5" s="7">
-        <v>4002</v>
+        <v>4439</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>482</v>
+        <v>495</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>483</v>
+        <v>496</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="M5" s="7">
         <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>11480</v>
+        <v>13013</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>487</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7114,7 +7171,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>20571</v>
+        <v>24069</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7129,7 +7186,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>14843</v>
+        <v>15755</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7144,7 +7201,7 @@
         <v>58</v>
       </c>
       <c r="N6" s="7">
-        <v>35414</v>
+        <v>39824</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7167,46 +7224,46 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>37762</v>
+        <v>38359</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>43053</v>
+        <v>40258</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
       </c>
       <c r="N7" s="7">
-        <v>80815</v>
+        <v>78617</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,46 +7275,46 @@
         <v>6</v>
       </c>
       <c r="D8" s="7">
-        <v>8239</v>
+        <v>7921</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>497</v>
+        <v>458</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
       </c>
       <c r="I8" s="7">
-        <v>5568</v>
+        <v>5185</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>13807</v>
+        <v>13106</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7269,7 +7326,7 @@
         <v>32</v>
       </c>
       <c r="D9" s="7">
-        <v>46001</v>
+        <v>46280</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7284,7 +7341,7 @@
         <v>59</v>
       </c>
       <c r="I9" s="7">
-        <v>48621</v>
+        <v>45443</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7299,7 +7356,7 @@
         <v>91</v>
       </c>
       <c r="N9" s="7">
-        <v>94622</v>
+        <v>91723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7322,46 +7379,46 @@
         <v>30</v>
       </c>
       <c r="D10" s="7">
-        <v>28434</v>
+        <v>27834</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>34155</v>
+        <v>32035</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>511</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>79</v>
       </c>
       <c r="N10" s="7">
-        <v>62589</v>
+        <v>59869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,46 +7430,46 @@
         <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>22296</v>
+        <v>21661</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="H11" s="7">
         <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>14766</v>
+        <v>13891</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>519</v>
+        <v>324</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
       </c>
       <c r="N11" s="7">
-        <v>37062</v>
+        <v>35553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,7 +7481,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="7">
-        <v>50730</v>
+        <v>49495</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7439,7 +7496,7 @@
         <v>70</v>
       </c>
       <c r="I12" s="7">
-        <v>48921</v>
+        <v>45926</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7454,7 +7511,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>99651</v>
+        <v>95422</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7477,46 +7534,46 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>28517</v>
+        <v>27598</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>526</v>
+        <v>467</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
       </c>
       <c r="I13" s="7">
-        <v>48361</v>
+        <v>68024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
       </c>
       <c r="N13" s="7">
-        <v>76878</v>
+        <v>95622</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,46 +7585,46 @@
         <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>13617</v>
+        <v>12755</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="H14" s="7">
         <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>13798</v>
+        <v>12628</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
       </c>
       <c r="N14" s="7">
-        <v>27415</v>
+        <v>25383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,7 +7636,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>42134</v>
+        <v>40353</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7594,7 +7651,7 @@
         <v>65</v>
       </c>
       <c r="I15" s="7">
-        <v>62159</v>
+        <v>80652</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7609,7 +7666,7 @@
         <v>97</v>
       </c>
       <c r="N15" s="7">
-        <v>104293</v>
+        <v>121005</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7632,46 +7689,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>16409</v>
+        <v>15001</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
       </c>
       <c r="I16" s="7">
-        <v>10127</v>
+        <v>9303</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
       </c>
       <c r="N16" s="7">
-        <v>26535</v>
+        <v>24304</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,46 +7740,46 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>3033</v>
+        <v>2756</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>1854</v>
+        <v>1683</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>4887</v>
+        <v>4439</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,7 +7791,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="7">
-        <v>19442</v>
+        <v>17757</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7749,7 +7806,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>11981</v>
+        <v>10986</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7764,7 +7821,7 @@
         <v>55</v>
       </c>
       <c r="N18" s="7">
-        <v>31422</v>
+        <v>28743</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7787,46 +7844,46 @@
         <v>27</v>
       </c>
       <c r="D19" s="7">
-        <v>22093</v>
+        <v>21378</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="H19" s="7">
         <v>39</v>
       </c>
       <c r="I19" s="7">
-        <v>24023</v>
+        <v>22472</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="M19" s="7">
         <v>66</v>
       </c>
       <c r="N19" s="7">
-        <v>46116</v>
+        <v>43850</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,46 +7895,46 @@
         <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>10613</v>
+        <v>10238</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>8448</v>
+        <v>7743</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M20" s="7">
         <v>23</v>
       </c>
       <c r="N20" s="7">
-        <v>19061</v>
+        <v>17981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7889,7 +7946,7 @@
         <v>39</v>
       </c>
       <c r="D21" s="7">
-        <v>32706</v>
+        <v>31616</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7904,7 +7961,7 @@
         <v>50</v>
       </c>
       <c r="I21" s="7">
-        <v>32471</v>
+        <v>30215</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7919,7 +7976,7 @@
         <v>89</v>
       </c>
       <c r="N21" s="7">
-        <v>65177</v>
+        <v>61831</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7942,46 +7999,46 @@
         <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>50338</v>
+        <v>49511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>81</v>
       </c>
       <c r="I22" s="7">
-        <v>56101</v>
+        <v>52576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>130</v>
       </c>
       <c r="N22" s="7">
-        <v>106440</v>
+        <v>102087</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,46 +8050,46 @@
         <v>21</v>
       </c>
       <c r="D23" s="7">
-        <v>24039</v>
+        <v>23667</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>586</v>
+        <v>261</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="H23" s="7">
         <v>22</v>
       </c>
       <c r="I23" s="7">
-        <v>18979</v>
+        <v>17951</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="M23" s="7">
         <v>43</v>
       </c>
       <c r="N23" s="7">
-        <v>43018</v>
+        <v>41618</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>592</v>
+        <v>172</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8044,7 +8101,7 @@
         <v>70</v>
       </c>
       <c r="D24" s="7">
-        <v>74377</v>
+        <v>73178</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8059,7 +8116,7 @@
         <v>103</v>
       </c>
       <c r="I24" s="7">
-        <v>75080</v>
+        <v>70527</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8074,7 +8131,7 @@
         <v>173</v>
       </c>
       <c r="N24" s="7">
-        <v>149458</v>
+        <v>143705</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8097,46 +8154,46 @@
         <v>52</v>
       </c>
       <c r="D25" s="7">
-        <v>61206</v>
+        <v>51801</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>71</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
       </c>
       <c r="I25" s="7">
-        <v>48807</v>
+        <v>40276</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>109</v>
       </c>
       <c r="N25" s="7">
-        <v>110012</v>
+        <v>92077</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,46 +8205,46 @@
         <v>5</v>
       </c>
       <c r="D26" s="7">
-        <v>5850</v>
+        <v>4956</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>79</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>12</v>
       </c>
       <c r="I26" s="7">
-        <v>18329</v>
+        <v>14434</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
       </c>
       <c r="N26" s="7">
-        <v>24179</v>
+        <v>19390</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,7 +8256,7 @@
         <v>57</v>
       </c>
       <c r="D27" s="7">
-        <v>67056</v>
+        <v>56757</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8214,7 +8271,7 @@
         <v>69</v>
       </c>
       <c r="I27" s="7">
-        <v>67136</v>
+        <v>54710</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8229,7 +8286,7 @@
         <v>126</v>
       </c>
       <c r="N27" s="7">
-        <v>134191</v>
+        <v>111467</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8252,46 +8309,46 @@
         <v>248</v>
       </c>
       <c r="D28" s="7">
-        <v>257851</v>
+        <v>246977</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>473</v>
+        <v>617</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>419</v>
+        <v>619</v>
       </c>
       <c r="H28" s="7">
         <v>374</v>
       </c>
       <c r="I28" s="7">
-        <v>275468</v>
+        <v>276261</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="M28" s="7">
         <v>622</v>
       </c>
       <c r="N28" s="7">
-        <v>533318</v>
+        <v>523238</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,46 +8360,46 @@
         <v>90</v>
       </c>
       <c r="D29" s="7">
-        <v>95167</v>
+        <v>92528</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>482</v>
+        <v>626</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>429</v>
+        <v>627</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="H29" s="7">
         <v>100</v>
       </c>
       <c r="I29" s="7">
-        <v>85743</v>
+        <v>77954</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="M29" s="7">
         <v>190</v>
       </c>
       <c r="N29" s="7">
-        <v>180910</v>
+        <v>170482</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>619</v>
+        <v>632</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>620</v>
+        <v>633</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>621</v>
+        <v>634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8354,7 +8411,7 @@
         <v>338</v>
       </c>
       <c r="D30" s="7">
-        <v>353018</v>
+        <v>339505</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8369,7 +8426,7 @@
         <v>474</v>
       </c>
       <c r="I30" s="7">
-        <v>361211</v>
+        <v>354215</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8384,7 +8441,7 @@
         <v>812</v>
       </c>
       <c r="N30" s="7">
-        <v>714228</v>
+        <v>693720</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
